--- a/documentations/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/documentations/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BriceThibault_5_02112021\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD2EB7C-A4A8-4A86-A3CC-88E1396E779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF65343-6CEF-43D1-8FB8-CD166A208772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -699,105 +699,105 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A8" s="12"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A9" s="12"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A10" s="12"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A11" s="12"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A13" s="12"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A14" s="12"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A15" s="12"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A16" s="12"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A17" s="12"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A18" s="12"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A19" s="12"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A20" s="12"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A21" s="12"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>

--- a/documentations/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/documentations/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BriceThibault_5_02112021\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF65343-6CEF-43D1-8FB8-CD166A208772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40636E-9568-4773-9A39-97F6B8F904D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -43,10 +43,100 @@
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>L'ensemble des produits s'affichent</t>
+  </si>
+  <si>
+    <t>Faire un clic sur un produit de la page d'accueil du site web dans un navigateur</t>
+  </si>
+  <si>
+    <t>Les informations du produit s'affiche</t>
+  </si>
+  <si>
+    <t>Affichage des informations du produit</t>
+  </si>
+  <si>
+    <t>Les couleurs associées s'affichent</t>
+  </si>
+  <si>
+    <t>Une page produit montrant (de manière dynamique) les informations de l'article disponible à la vente.</t>
+  </si>
+  <si>
+    <t>Choisir une couleur sur la page produit.</t>
+  </si>
+  <si>
+    <t>Une page panier montrant (de manière dynamique) le ou les articles sélectionnés.</t>
+  </si>
+  <si>
+    <t>Afficher le ou les produits sélectionnés pour la commande par l'utilisateur</t>
+  </si>
+  <si>
+    <t>Afficher les couleurs disponible du produit</t>
+  </si>
+  <si>
+    <t>Affichage du ou des produits dans le panier</t>
+  </si>
+  <si>
+    <t>Faire un clic sur la liste déroulante afin de sélectionner la couleur désirée</t>
+  </si>
+  <si>
+    <t>Faire un clic sur l'input (liste de choix) afin de modifier la quantité sur la page panier</t>
+  </si>
+  <si>
+    <t>La quantité totale et le prix total s'ajuste en fonction du choix de la quantité choisie.</t>
+  </si>
+  <si>
+    <t>Suppression d'un produit du panier.</t>
+  </si>
+  <si>
+    <t>Suppression totale d'un produit du panier</t>
+  </si>
+  <si>
+    <t>La modificationd de la quantité sur la page panier influe sur la quantité totale et le prix totale</t>
+  </si>
+  <si>
+    <t>Faire une clic sur Supprimer pour le retrait d'un produit du panier</t>
+  </si>
+  <si>
+    <t>Faire un clic sur le bouton ajouter au panier dans une page produit</t>
+  </si>
+  <si>
+    <t>Ajout ou diminution de la quantité d'un produit sur la page panier.</t>
+  </si>
+  <si>
+    <t>Un produit est supprimé du panier lors du clic sur Supprimer</t>
+  </si>
+  <si>
+    <t>Ajout de la couleur d'un produit de même catégorie</t>
+  </si>
+  <si>
+    <t>Afficher la couleur d'un produit de même catégorie lors de l'ajout de 2  canapés identiques</t>
+  </si>
+  <si>
+    <t>Afficher la couleur d'un produit</t>
+  </si>
+  <si>
+    <t>La couleur du produit s'affiche</t>
+  </si>
+  <si>
+    <t>Regroupement des produits de même catégories et couleurs.</t>
+  </si>
+  <si>
+    <t>Un produit de même catégorie et couleur s'affiche sur la même ligne</t>
+  </si>
+  <si>
+    <t>Un produit de même catégorie et de couleurs se mettent à jour sur la même ligne de commande</t>
+  </si>
+  <si>
+    <t>Le localStorage se vide lors de l'envoi de la commande.</t>
+  </si>
+  <si>
+    <t>Clic sur le bouton commander. Le localStorage se vide complètement</t>
+  </si>
+  <si>
+    <t>Le localStorage est vide lors de l'envoi de la commande.</t>
+  </si>
+  <si>
+    <t>Le localStorage est vide.</t>
   </si>
 </sst>
 </file>
@@ -325,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,55 +429,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,7 +686,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -638,170 +713,240 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="21">
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A5" s="21">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A6" s="21">
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="16"/>
     </row>
   </sheetData>
